--- a/de/data_and_scripts/data/datasetLaws.xlsx
+++ b/de/data_and_scripts/data/datasetLaws.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitch/Google Drive/Work/Assegno di Ricerca 2017_2018/[2017-09] SIEC - History of Administrative Detention/1. Material/Resources/Corrected Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia/Documents/GitHub/00_work/prototype-siec/de/data_and_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C1F0F-BDAA-CB44-BB43-67EF46373C1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17840" tabRatio="871"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17840" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all law" sheetId="1" r:id="rId1"/>
@@ -3231,19 +3232,19 @@
     <t>international</t>
   </si>
   <si>
-    <t>cantonal</t>
-  </si>
-  <si>
-    <t>federal</t>
-  </si>
-  <si>
-    <t>intercantonal</t>
+    <t>kantonal</t>
+  </si>
+  <si>
+    <t>interkantonal</t>
+  </si>
+  <si>
+    <t>bundesstaatlich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3358,7 +3359,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3755,11 +3756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IO358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="C367" sqref="C367"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="I341" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11592,7 +11593,7 @@
       </c>
       <c r="H340" s="13"/>
       <c r="I340" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="53" x14ac:dyDescent="0.2">
@@ -11619,7 +11620,7 @@
       </c>
       <c r="H341" s="13"/>
       <c r="I341" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="53" x14ac:dyDescent="0.2">
@@ -11644,7 +11645,7 @@
       </c>
       <c r="H342" s="13"/>
       <c r="I342" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="40" x14ac:dyDescent="0.2">
@@ -11669,7 +11670,7 @@
       </c>
       <c r="H343" s="13"/>
       <c r="I343" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="40" x14ac:dyDescent="0.2">
@@ -11694,7 +11695,7 @@
       </c>
       <c r="H344" s="13"/>
       <c r="I344" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="66" x14ac:dyDescent="0.2">
@@ -11717,7 +11718,7 @@
       </c>
       <c r="H345" s="13"/>
       <c r="I345" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="66" x14ac:dyDescent="0.2">
@@ -11740,7 +11741,7 @@
       </c>
       <c r="H346" s="13"/>
       <c r="I346" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="79" x14ac:dyDescent="0.2">
@@ -11767,7 +11768,7 @@
       </c>
       <c r="H347" s="13"/>
       <c r="I347" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="40" x14ac:dyDescent="0.2">
@@ -11784,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="105" x14ac:dyDescent="0.2">
@@ -11804,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="144" x14ac:dyDescent="0.2">
@@ -11824,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="92" x14ac:dyDescent="0.2">
@@ -11844,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="40" x14ac:dyDescent="0.2">
@@ -11861,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="79" x14ac:dyDescent="0.2">
@@ -11881,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="157" x14ac:dyDescent="0.2">
@@ -11898,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="183" x14ac:dyDescent="0.2">
@@ -11918,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="92" x14ac:dyDescent="0.2">
@@ -11938,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="40" x14ac:dyDescent="0.2">
